--- a/src/analysis_examples/circadb/results_jtk/cosinor_10533945_ubc_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10533945_ubc_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.18861750069574656, 0.28848606323711445]</t>
+          <t>[0.18726365527901406, 0.28983990865384696]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.17164375371226e-09</v>
+        <v>3.458454411742196e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>2.17164375371226e-09</v>
+        <v>3.458454411742196e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-0.9308422677303092</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.1572633598809254, -0.704421175579693]</t>
+          <t>[-1.1446844103170015, -0.7170001251436169]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>2.793239017861993e-08</v>
+        <v>1.074871236461661e-08</v>
       </c>
       <c r="R2" t="n">
-        <v>2.793239017861993e-08</v>
+        <v>1.074871236461661e-08</v>
       </c>
       <c r="S2" t="n">
         <v>0.5055215535650617</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.47931319253354643, 0.5317299145965769]</t>
+          <t>[0.4793235227496522, 0.5317195843804712]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>3.469629629629711</v>
       </c>
       <c r="X2" t="n">
-        <v>2.625665665665726</v>
+        <v>2.672552552552617</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.313593593593697</v>
+        <v>4.266706706706805</v>
       </c>
     </row>
   </sheetData>
